--- a/ES2N-Requisitos Funcionais v1.0 rev Denilce 3103.xlsx
+++ b/ES2N-Requisitos Funcionais v1.0 rev Denilce 3103.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aulas2022_1sem\AtividadesProjetosES2\Preguica\ESN2-Requisitos Funcionais v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FABD1-E2C6-4FE0-9310-57BEE93A779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F45B9-FD12-443D-BAB8-268BC578032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
   </si>
@@ -111,18 +111,12 @@
     <t>RF07</t>
   </si>
   <si>
-    <t>Resultado do cálculo</t>
-  </si>
-  <si>
     <t>Estatísticas</t>
   </si>
   <si>
     <t>DEIXAR COMO VERBO</t>
   </si>
   <si>
-    <t>Mostrar Informações úteis</t>
-  </si>
-  <si>
     <t>Gerenciar Usuário</t>
   </si>
   <si>
@@ -147,7 +141,13 @@
     <t>Comparar Usuário</t>
   </si>
   <si>
-    <t>Gerenciar Informações Usuário</t>
+    <t>Exibir dados que demonstrem o resultado das práticas no usuário. Não e o RF02???</t>
+  </si>
+  <si>
+    <t>solicitacao - usuario dispara</t>
+  </si>
+  <si>
+    <t>processo - consequencia por exemplo um extend ou include</t>
   </si>
   <si>
     <r>
@@ -169,24 +169,51 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Cadastro de informações que são necessárias para o cálculo de emissão de CO2. Por Exemplo: Nome, idade, informações sobre o estilo de vida, alimentação, meio de transporte mais utilizado, se costuma viajar de avião etc.</t>
+      <t>Cadastro de informações iniciais  que são necessárias para o cálculo de emissão de CO2. Por Exemplo: Nome, idade, informações sobre o estilo de vida, alimentação, meio de transporte mais utilizado, se costuma viajar de avião etc.</t>
     </r>
   </si>
   <si>
-    <t>Exibir dados que demonstrem o resultado das práticas no usuário. Não e o RF02???</t>
-  </si>
-  <si>
-    <t>solicitacao - usuario dispara</t>
-  </si>
-  <si>
-    <t>processo - consequencia por exemplo um extend ou include</t>
+    <t>Cadastrar Habitos Usuário</t>
+  </si>
+  <si>
+    <t>Acompanhar habitos usuario</t>
+  </si>
+  <si>
+    <t>Mostrar Informações Gerais</t>
+  </si>
+  <si>
+    <t>VAI PRO FAZER CALCULO</t>
+  </si>
+  <si>
+    <t>Fazer Cálculo</t>
+  </si>
+  <si>
+    <t>vai pro Sugerir Habitos e praticas e depopis Comparar Usuario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gerenciar </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sugestoes</t>
+    </r>
+  </si>
+  <si>
+    <t>Gerenciar Habitos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,6 +263,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,22 +308,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,16 +665,16 @@
     <col min="5" max="5" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -644,17 +690,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -671,32 +717,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -705,32 +748,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -739,32 +785,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>
@@ -773,143 +819,161 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1070,12 +1134,26 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
+    <row r="55" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>